--- a/data/trans_orig/RGH1-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/RGH1-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A324DCF-81FE-4CFD-B878-ED976F3428DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9DF10872-4763-4527-A07D-C2DE46C84D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{847F89E9-DE34-450B-AF2B-AFEF7651C487}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FAE34D52-1E24-4DBB-935F-5BAC30E275D2}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="673">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="683">
   <si>
     <t>Población según nivel de salud general autopercibida en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -77,1963 +77,1990 @@
     <t>5,5%</t>
   </si>
   <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
   </si>
   <si>
     <t>3,63%</t>
   </si>
   <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
   </si>
   <si>
     <t>4,45%</t>
   </si>
   <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>MUY BUENA</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>BUENA</t>
+  </si>
+  <si>
+    <t>42,51%</t>
+  </si>
+  <si>
+    <t>39,79%</t>
+  </si>
+  <si>
+    <t>45,71%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>37,7%</t>
+  </si>
+  <si>
+    <t>38,45%</t>
+  </si>
+  <si>
+    <t>36,33%</t>
+  </si>
+  <si>
+    <t>40,51%</t>
+  </si>
+  <si>
+    <t>REGULAR</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>38,59%</t>
+  </si>
+  <si>
+    <t>35,91%</t>
+  </si>
+  <si>
+    <t>41,39%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>MALA</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>45,33%</t>
+  </si>
+  <si>
+    <t>42,96%</t>
+  </si>
+  <si>
+    <t>48,06%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>36,21%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>44,89%</t>
+  </si>
+  <si>
+    <t>42,27%</t>
+  </si>
+  <si>
+    <t>47,34%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>41,17%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>40,67%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>45,34%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>39,65%</t>
+  </si>
+  <si>
+    <t>35,17%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>41,14%</t>
+  </si>
+  <si>
+    <t>37,03%</t>
+  </si>
+  <si>
+    <t>46,2%</t>
+  </si>
+  <si>
+    <t>37,94%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>41,01%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
     <t>3,66%</t>
   </si>
   <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>MUY BUENA</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>38,04%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>36,88%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>38,89%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>38,94%</t>
+  </si>
+  <si>
+    <t>42,31%</t>
+  </si>
+  <si>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>37,61%</t>
+  </si>
+  <si>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según nivel de salud general autopercibida en 2012 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>43,99%</t>
+  </si>
+  <si>
+    <t>40,79%</t>
+  </si>
+  <si>
+    <t>47,38%</t>
+  </si>
+  <si>
+    <t>39,88%</t>
+  </si>
+  <si>
+    <t>37,14%</t>
+  </si>
+  <si>
+    <t>42,5%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>39,52%</t>
+  </si>
+  <si>
+    <t>43,55%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>41,65%</t>
+  </si>
+  <si>
+    <t>39,38%</t>
+  </si>
+  <si>
+    <t>43,84%</t>
+  </si>
+  <si>
+    <t>46,01%</t>
+  </si>
+  <si>
+    <t>48,65%</t>
+  </si>
+  <si>
+    <t>43,71%</t>
+  </si>
+  <si>
+    <t>42,03%</t>
+  </si>
+  <si>
+    <t>45,41%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>41,53%</t>
+  </si>
+  <si>
+    <t>46,04%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>36,46%</t>
+  </si>
+  <si>
+    <t>36,8%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>40,03%</t>
+  </si>
+  <si>
+    <t>37,82%</t>
+  </si>
+  <si>
+    <t>42,59%</t>
+  </si>
+  <si>
+    <t>49,36%</t>
+  </si>
+  <si>
+    <t>44,53%</t>
+  </si>
+  <si>
+    <t>54,84%</t>
+  </si>
+  <si>
+    <t>43,46%</t>
+  </si>
+  <si>
+    <t>40,06%</t>
+  </si>
+  <si>
+    <t>46,96%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
+  </si>
+  <si>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>44,14%</t>
+  </si>
+  <si>
+    <t>42,36%</t>
+  </si>
+  <si>
+    <t>45,79%</t>
+  </si>
+  <si>
+    <t>42,98%</t>
+  </si>
+  <si>
+    <t>41,74%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>Población según nivel de salud general autopercibida en 2015 (Tasa respuesta: 99,86%)</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>39,72%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>36,78%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>37,41%</t>
+  </si>
+  <si>
+    <t>36,79%</t>
+  </si>
+  <si>
+    <t>35,22%</t>
+  </si>
+  <si>
+    <t>38,19%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>43,73%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>47,69%</t>
+  </si>
+  <si>
+    <t>39,55%</t>
+  </si>
+  <si>
+    <t>43,32%</t>
+  </si>
+  <si>
+    <t>41,63%</t>
+  </si>
+  <si>
+    <t>38,91%</t>
+  </si>
+  <si>
+    <t>44,81%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>Población según nivel de salud general autopercibida en 2023 (Tasa respuesta: 99,38%)</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>40,5%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
+  </si>
+  <si>
+    <t>44,55%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>40,05%</t>
+  </si>
+  <si>
+    <t>38,39%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
+  </si>
+  <si>
+    <t>39,24%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>35,48%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
   </si>
   <si>
     <t>13,83%</t>
   </si>
   <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>BUENA</t>
-  </si>
-  <si>
-    <t>42,51%</t>
-  </si>
-  <si>
-    <t>39,61%</t>
-  </si>
-  <si>
-    <t>45,33%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>38,07%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>40,39%</t>
-  </si>
-  <si>
-    <t>REGULAR</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>38,59%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>41,13%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>35,18%</t>
-  </si>
-  <si>
-    <t>MALA</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
   </si>
   <si>
     <t>11,07%</t>
   </si>
   <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>43,04%</t>
-  </si>
-  <si>
-    <t>47,55%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>36,29%</t>
-  </si>
-  <si>
-    <t>44,89%</t>
-  </si>
-  <si>
-    <t>42,54%</t>
-  </si>
-  <si>
-    <t>47,41%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>40,94%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>42,68%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
+  </si>
+  <si>
+    <t>47,27%</t>
+  </si>
+  <si>
+    <t>48,13%</t>
+  </si>
+  <si>
+    <t>44,67%</t>
+  </si>
+  <si>
+    <t>55,77%</t>
+  </si>
+  <si>
+    <t>45,46%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
+  </si>
+  <si>
+    <t>50,3%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
   </si>
   <si>
     <t>12,4%</t>
   </si>
   <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>40,67%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>44,75%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
-  </si>
-  <si>
-    <t>39,68%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>41,14%</t>
-  </si>
-  <si>
-    <t>36,94%</t>
-  </si>
-  <si>
-    <t>45,86%</t>
-  </si>
-  <si>
-    <t>37,94%</t>
-  </si>
-  <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>40,99%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>38,42%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>36,88%</t>
-  </si>
-  <si>
-    <t>38,51%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>38,98%</t>
-  </si>
-  <si>
-    <t>42,21%</t>
-  </si>
-  <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>37,57%</t>
-  </si>
-  <si>
-    <t>39,92%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según nivel de salud general autopercibida en 2012 (Tasa respuesta: 99,83%)</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>47,68%</t>
+  </si>
+  <si>
+    <t>43,22%</t>
+  </si>
+  <si>
+    <t>51,52%</t>
+  </si>
+  <si>
+    <t>42,08%</t>
+  </si>
+  <si>
+    <t>48,68%</t>
+  </si>
+  <si>
+    <t>46,47%</t>
+  </si>
+  <si>
+    <t>43,94%</t>
+  </si>
+  <si>
+    <t>49,14%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>43,33%</t>
+  </si>
+  <si>
+    <t>41,2%</t>
+  </si>
+  <si>
+    <t>46,4%</t>
+  </si>
+  <si>
+    <t>45,18%</t>
+  </si>
+  <si>
+    <t>51,14%</t>
+  </si>
+  <si>
+    <t>44,31%</t>
+  </si>
+  <si>
+    <t>47,85%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
   </si>
   <si>
     <t>15,33%</t>
   </si>
   <si>
-    <t>43,99%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>47,19%</t>
-  </si>
-  <si>
-    <t>39,88%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>42,91%</t>
-  </si>
-  <si>
-    <t>41,61%</t>
-  </si>
-  <si>
-    <t>39,56%</t>
-  </si>
-  <si>
-    <t>43,87%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>41,65%</t>
-  </si>
-  <si>
-    <t>44,16%</t>
-  </si>
-  <si>
-    <t>46,01%</t>
-  </si>
-  <si>
-    <t>43,44%</t>
-  </si>
-  <si>
-    <t>48,31%</t>
-  </si>
-  <si>
-    <t>43,71%</t>
-  </si>
-  <si>
-    <t>42,11%</t>
-  </si>
-  <si>
-    <t>45,31%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>41,53%</t>
-  </si>
-  <si>
-    <t>37,05%</t>
-  </si>
-  <si>
-    <t>46,37%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>36,91%</t>
-  </si>
-  <si>
-    <t>36,8%</t>
-  </si>
-  <si>
-    <t>33,46%</t>
-  </si>
-  <si>
-    <t>40,03%</t>
-  </si>
-  <si>
-    <t>37,82%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>49,36%</t>
-  </si>
-  <si>
-    <t>44,38%</t>
-  </si>
-  <si>
-    <t>54,38%</t>
-  </si>
-  <si>
-    <t>43,46%</t>
-  </si>
-  <si>
-    <t>40,04%</t>
-  </si>
-  <si>
-    <t>46,94%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
-  </si>
-  <si>
-    <t>40,11%</t>
-  </si>
-  <si>
-    <t>43,36%</t>
-  </si>
-  <si>
-    <t>44,14%</t>
-  </si>
-  <si>
-    <t>42,33%</t>
-  </si>
-  <si>
-    <t>45,79%</t>
-  </si>
-  <si>
-    <t>42,98%</t>
-  </si>
-  <si>
-    <t>41,75%</t>
-  </si>
-  <si>
-    <t>44,13%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>Población según nivel de salud general autopercibida en 2015 (Tasa respuesta: 99,86%)</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>40,17%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>36,85%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>36,32%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>37,1%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>43,73%</t>
-  </si>
-  <si>
-    <t>39,54%</t>
-  </si>
-  <si>
-    <t>48,3%</t>
-  </si>
-  <si>
-    <t>39,55%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>43,61%</t>
-  </si>
-  <si>
-    <t>41,63%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>37,73%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>33,16%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>37,45%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>Población según nivel de salud general autopercibida en 2023 (Tasa respuesta: 99,38%)</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>40,5%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>44,48%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
-  </si>
-  <si>
-    <t>39,94%</t>
-  </si>
-  <si>
-    <t>38,39%</t>
-  </si>
-  <si>
-    <t>36,03%</t>
-  </si>
-  <si>
-    <t>40,74%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>36,18%</t>
-  </si>
-  <si>
-    <t>38,64%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>35,51%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>33,77%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>40,07%</t>
-  </si>
-  <si>
-    <t>47,74%</t>
-  </si>
-  <si>
-    <t>48,13%</t>
-  </si>
-  <si>
-    <t>44,55%</t>
-  </si>
-  <si>
-    <t>56,52%</t>
-  </si>
-  <si>
-    <t>45,46%</t>
-  </si>
-  <si>
-    <t>43,14%</t>
-  </si>
-  <si>
-    <t>50,19%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>47,68%</t>
-  </si>
-  <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>51,75%</t>
-  </si>
-  <si>
-    <t>45,34%</t>
-  </si>
-  <si>
-    <t>42,02%</t>
-  </si>
-  <si>
-    <t>48,85%</t>
-  </si>
-  <si>
-    <t>46,47%</t>
-  </si>
-  <si>
-    <t>48,92%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>43,33%</t>
-  </si>
-  <si>
-    <t>41,22%</t>
-  </si>
-  <si>
-    <t>45,18%</t>
-  </si>
-  <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>52,16%</t>
-  </si>
-  <si>
-    <t>44,31%</t>
-  </si>
-  <si>
-    <t>42,69%</t>
-  </si>
-  <si>
-    <t>47,86%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
     <t>18,16%</t>
   </si>
   <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
   </si>
   <si>
     <t>15,27%</t>
@@ -2045,19 +2072,22 @@
     <t>3,55%</t>
   </si>
   <si>
-    <t>2,95%</t>
+    <t>4,2%</t>
   </si>
   <si>
     <t>5,16%</t>
   </si>
   <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
+    <t>4,57%</t>
   </si>
   <si>
     <t>4,4%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
   </si>
 </sst>
 </file>
@@ -2469,7 +2499,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75E2C736-D728-4DC4-948B-02B440DF7CB0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4607ADDB-EA15-4237-B74A-7A42CB08FACE}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2833,7 +2863,7 @@
         <v>58</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2848,13 +2878,13 @@
         <v>1031723</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H9" s="7">
         <v>1291</v>
@@ -2863,13 +2893,13 @@
         <v>1315113</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
         <v>2329</v>
@@ -2878,18 +2908,18 @@
         <v>2346836</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2901,13 +2931,13 @@
         <v>215500</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H10" s="7">
         <v>149</v>
@@ -2916,13 +2946,13 @@
         <v>150852</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="M10" s="7">
         <v>355</v>
@@ -2931,13 +2961,13 @@
         <v>366352</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2952,13 +2982,13 @@
         <v>767050</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H11" s="7">
         <v>476</v>
@@ -2967,13 +2997,13 @@
         <v>476691</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M11" s="7">
         <v>1222</v>
@@ -2982,13 +3012,13 @@
         <v>1243741</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3003,13 +3033,13 @@
         <v>575433</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>687</v>
@@ -3018,13 +3048,13 @@
         <v>712671</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>1251</v>
@@ -3033,13 +3063,13 @@
         <v>1288103</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3054,13 +3084,13 @@
         <v>119174</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>201</v>
@@ -3069,13 +3099,13 @@
         <v>206436</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>317</v>
@@ -3084,13 +3114,13 @@
         <v>325610</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3105,13 +3135,13 @@
         <v>15171</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>41</v>
@@ -3120,13 +3150,13 @@
         <v>41023</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>57</v>
@@ -3135,13 +3165,13 @@
         <v>56194</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3156,13 +3186,13 @@
         <v>1692328</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H15" s="7">
         <v>1554</v>
@@ -3171,13 +3201,13 @@
         <v>1587673</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M15" s="7">
         <v>3202</v>
@@ -3186,18 +3216,18 @@
         <v>3280001</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3209,13 +3239,13 @@
         <v>87104</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H16" s="7">
         <v>59</v>
@@ -3224,13 +3254,13 @@
         <v>62164</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="M16" s="7">
         <v>143</v>
@@ -3239,13 +3269,13 @@
         <v>149268</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3260,13 +3290,13 @@
         <v>224270</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="H17" s="7">
         <v>141</v>
@@ -3275,13 +3305,13 @@
         <v>150166</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="M17" s="7">
         <v>357</v>
@@ -3290,13 +3320,13 @@
         <v>374437</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3311,13 +3341,13 @@
         <v>193917</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="H18" s="7">
         <v>188</v>
@@ -3326,13 +3356,13 @@
         <v>196006</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="M18" s="7">
         <v>373</v>
@@ -3341,13 +3371,13 @@
         <v>389923</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3362,13 +3392,13 @@
         <v>36396</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="H19" s="7">
         <v>55</v>
@@ -3377,13 +3407,13 @@
         <v>58348</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="M19" s="7">
         <v>89</v>
@@ -3392,13 +3422,13 @@
         <v>94744</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3413,13 +3443,13 @@
         <v>9721</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H20" s="7">
         <v>9</v>
@@ -3428,13 +3458,13 @@
         <v>9727</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>144</v>
+        <v>98</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M20" s="7">
         <v>17</v>
@@ -3443,13 +3473,13 @@
         <v>19448</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3464,13 +3494,13 @@
         <v>551408</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
         <v>452</v>
@@ -3479,13 +3509,13 @@
         <v>476412</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>979</v>
@@ -3494,13 +3524,13 @@
         <v>1027820</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3517,13 +3547,13 @@
         <v>359346</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="H22" s="7">
         <v>254</v>
@@ -3532,13 +3562,13 @@
         <v>260759</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>600</v>
@@ -3547,13 +3577,13 @@
         <v>620105</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3568,13 +3598,13 @@
         <v>1195774</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="H23" s="7">
         <v>771</v>
@@ -3583,13 +3613,13 @@
         <v>778377</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="M23" s="7">
         <v>1932</v>
@@ -3598,13 +3628,13 @@
         <v>1974151</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3619,13 +3649,13 @@
         <v>1207931</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>123</v>
+        <v>170</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="H24" s="7">
         <v>1336</v>
@@ -3634,13 +3664,13 @@
         <v>1372349</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="M24" s="7">
         <v>2530</v>
@@ -3649,13 +3679,13 @@
         <v>2580280</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3670,13 +3700,13 @@
         <v>431855</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H25" s="7">
         <v>747</v>
@@ -3685,13 +3715,13 @@
         <v>772351</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="M25" s="7">
         <v>1177</v>
@@ -3700,13 +3730,13 @@
         <v>1204205</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3721,13 +3751,13 @@
         <v>80553</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="H26" s="7">
         <v>189</v>
@@ -3736,13 +3766,13 @@
         <v>195362</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="M26" s="7">
         <v>271</v>
@@ -3751,13 +3781,13 @@
         <v>275915</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3772,13 +3802,13 @@
         <v>3275459</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
         <v>3297</v>
@@ -3787,13 +3817,13 @@
         <v>3379198</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>6510</v>
@@ -3802,18 +3832,18 @@
         <v>6654656</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -3832,7 +3862,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FF54FA4-DAD0-4DA9-B86F-446A03D19E53}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF46732B-03E8-45E8-8A86-A5761A85E643}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3849,7 +3879,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3956,13 +3986,13 @@
         <v>41526</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="H4" s="7">
         <v>18</v>
@@ -3971,13 +4001,13 @@
         <v>19945</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="M4" s="7">
         <v>59</v>
@@ -3986,13 +4016,13 @@
         <v>61471</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4007,13 +4037,13 @@
         <v>163432</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="H5" s="7">
         <v>146</v>
@@ -4022,13 +4052,13 @@
         <v>157059</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="M5" s="7">
         <v>300</v>
@@ -4037,13 +4067,13 @@
         <v>320491</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4058,13 +4088,13 @@
         <v>428700</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="H6" s="7">
         <v>494</v>
@@ -4073,13 +4103,13 @@
         <v>533180</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="M6" s="7">
         <v>898</v>
@@ -4088,13 +4118,13 @@
         <v>961880</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4109,13 +4139,13 @@
         <v>267720</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="H7" s="7">
         <v>445</v>
@@ -4124,13 +4154,13 @@
         <v>474182</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>128</v>
+        <v>230</v>
       </c>
       <c r="M7" s="7">
         <v>688</v>
@@ -4139,13 +4169,13 @@
         <v>741902</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4160,13 +4190,13 @@
         <v>73265</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="H8" s="7">
         <v>143</v>
@@ -4175,13 +4205,13 @@
         <v>152485</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="M8" s="7">
         <v>209</v>
@@ -4190,13 +4220,13 @@
         <v>225750</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4211,13 +4241,13 @@
         <v>974643</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H9" s="7">
         <v>1246</v>
@@ -4226,13 +4256,13 @@
         <v>1336851</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
         <v>2154</v>
@@ -4241,18 +4271,18 @@
         <v>2311494</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4264,13 +4294,13 @@
         <v>286839</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="H10" s="7">
         <v>161</v>
@@ -4279,13 +4309,13 @@
         <v>166309</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="M10" s="7">
         <v>437</v>
@@ -4294,13 +4324,13 @@
         <v>453148</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>243</v>
+        <v>115</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>244</v>
+        <v>54</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>26</v>
+        <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4315,13 +4345,13 @@
         <v>658207</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="H11" s="7">
         <v>467</v>
@@ -4330,13 +4360,13 @@
         <v>496896</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="M11" s="7">
         <v>1101</v>
@@ -4345,13 +4375,13 @@
         <v>1155103</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4366,13 +4396,13 @@
         <v>815927</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>218</v>
+        <v>260</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="H12" s="7">
         <v>748</v>
@@ -4381,13 +4411,13 @@
         <v>807451</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>257</v>
+        <v>224</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="M12" s="7">
         <v>1503</v>
@@ -4396,13 +4426,13 @@
         <v>1623378</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4417,13 +4447,13 @@
         <v>174844</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>93</v>
+        <v>267</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="H13" s="7">
         <v>218</v>
@@ -4432,13 +4462,13 @@
         <v>240604</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="M13" s="7">
         <v>383</v>
@@ -4447,13 +4477,13 @@
         <v>415448</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4468,13 +4498,13 @@
         <v>23057</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="H14" s="7">
         <v>39</v>
@@ -4483,13 +4513,13 @@
         <v>43621</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>140</v>
+        <v>280</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>201</v>
+        <v>281</v>
       </c>
       <c r="M14" s="7">
         <v>60</v>
@@ -4498,13 +4528,13 @@
         <v>66677</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4516,16 +4546,16 @@
         <v>1851</v>
       </c>
       <c r="D15" s="7">
-        <v>1958874</v>
+        <v>1958873</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H15" s="7">
         <v>1633</v>
@@ -4534,13 +4564,13 @@
         <v>1754882</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M15" s="7">
         <v>3484</v>
@@ -4549,18 +4579,18 @@
         <v>3713755</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4572,13 +4602,13 @@
         <v>69585</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="H16" s="7">
         <v>46</v>
@@ -4587,13 +4617,13 @@
         <v>50740</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>279</v>
+        <v>242</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>62</v>
+        <v>287</v>
       </c>
       <c r="M16" s="7">
         <v>106</v>
@@ -4602,13 +4632,13 @@
         <v>120324</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>281</v>
+        <v>109</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4623,13 +4653,13 @@
         <v>199020</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>285</v>
+        <v>130</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="H17" s="7">
         <v>133</v>
@@ -4638,13 +4668,13 @@
         <v>145713</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>118</v>
+        <v>293</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="M17" s="7">
         <v>320</v>
@@ -4653,13 +4683,13 @@
         <v>344734</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4674,13 +4704,13 @@
         <v>181241</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>293</v>
+        <v>47</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="H18" s="7">
         <v>201</v>
@@ -4689,13 +4719,13 @@
         <v>225906</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="M18" s="7">
         <v>369</v>
@@ -4704,13 +4734,13 @@
         <v>407147</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4725,13 +4755,13 @@
         <v>24203</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="H19" s="7">
         <v>27</v>
@@ -4740,13 +4770,13 @@
         <v>30166</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="M19" s="7">
         <v>44</v>
@@ -4755,13 +4785,13 @@
         <v>54369</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4776,13 +4806,13 @@
         <v>5193</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -4791,13 +4821,13 @@
         <v>5120</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="M20" s="7">
         <v>8</v>
@@ -4806,13 +4836,13 @@
         <v>10313</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4827,13 +4857,13 @@
         <v>479243</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
         <v>411</v>
@@ -4842,13 +4872,13 @@
         <v>457645</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>847</v>
@@ -4857,13 +4887,13 @@
         <v>936888</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4880,13 +4910,13 @@
         <v>397949</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>281</v>
+        <v>326</v>
       </c>
       <c r="H22" s="7">
         <v>225</v>
@@ -4895,13 +4925,13 @@
         <v>236994</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>138</v>
+        <v>329</v>
       </c>
       <c r="M22" s="7">
         <v>602</v>
@@ -4910,13 +4940,13 @@
         <v>634944</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>325</v>
+        <v>238</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4931,13 +4961,13 @@
         <v>1020659</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="H23" s="7">
         <v>746</v>
@@ -4946,13 +4976,13 @@
         <v>799669</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="M23" s="7">
         <v>1721</v>
@@ -4961,13 +4991,13 @@
         <v>1820328</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4982,13 +5012,13 @@
         <v>1425868</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="H24" s="7">
         <v>1443</v>
@@ -4997,13 +5027,13 @@
         <v>1566537</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="M24" s="7">
         <v>2770</v>
@@ -5012,13 +5042,13 @@
         <v>2992406</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5033,13 +5063,13 @@
         <v>466767</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="H25" s="7">
         <v>690</v>
@@ -5048,13 +5078,13 @@
         <v>744952</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>329</v>
+        <v>355</v>
       </c>
       <c r="M25" s="7">
         <v>1115</v>
@@ -5063,13 +5093,13 @@
         <v>1211719</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5084,13 +5114,13 @@
         <v>101515</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>351</v>
+        <v>307</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>14</v>
+        <v>359</v>
       </c>
       <c r="H26" s="7">
         <v>186</v>
@@ -5099,13 +5129,13 @@
         <v>201225</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="M26" s="7">
         <v>277</v>
@@ -5114,13 +5144,13 @@
         <v>302741</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5135,13 +5165,13 @@
         <v>3412759</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
         <v>3290</v>
@@ -5150,13 +5180,13 @@
         <v>3549378</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>6485</v>
@@ -5165,18 +5195,18 @@
         <v>6962137</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -5195,7 +5225,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{145BCCD9-6B38-4323-9241-8B32892BFF64}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD5D1942-72E9-4EB7-B824-9533D5005C29}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5212,7 +5242,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5319,13 +5349,13 @@
         <v>66103</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="H4" s="7">
         <v>51</v>
@@ -5334,13 +5364,13 @@
         <v>53155</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="M4" s="7">
         <v>116</v>
@@ -5349,13 +5379,13 @@
         <v>119258</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5370,13 +5400,13 @@
         <v>163216</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="H5" s="7">
         <v>153</v>
@@ -5385,13 +5415,13 @@
         <v>160686</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>107</v>
+        <v>381</v>
       </c>
       <c r="M5" s="7">
         <v>313</v>
@@ -5400,13 +5430,13 @@
         <v>323902</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5421,13 +5451,13 @@
         <v>275741</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>290</v>
+        <v>386</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="H6" s="7">
         <v>296</v>
@@ -5436,13 +5466,13 @@
         <v>325602</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>381</v>
+        <v>38</v>
       </c>
       <c r="M6" s="7">
         <v>576</v>
@@ -5451,13 +5481,13 @@
         <v>601343</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>383</v>
+        <v>231</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5472,13 +5502,13 @@
         <v>199558</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="H7" s="7">
         <v>293</v>
@@ -5487,13 +5517,13 @@
         <v>336030</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>251</v>
+        <v>127</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="M7" s="7">
         <v>497</v>
@@ -5502,13 +5532,13 @@
         <v>535588</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>391</v>
+        <v>167</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5523,13 +5553,13 @@
         <v>49728</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>394</v>
+        <v>91</v>
       </c>
       <c r="H8" s="7">
         <v>96</v>
@@ -5538,13 +5568,13 @@
         <v>114972</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="M8" s="7">
         <v>149</v>
@@ -5553,13 +5583,13 @@
         <v>164700</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>362</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5574,13 +5604,13 @@
         <v>754347</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H9" s="7">
         <v>889</v>
@@ -5589,13 +5619,13 @@
         <v>990444</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
         <v>1651</v>
@@ -5604,18 +5634,18 @@
         <v>1744791</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5627,13 +5657,13 @@
         <v>392989</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="H10" s="7">
         <v>334</v>
@@ -5642,13 +5672,13 @@
         <v>335171</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="M10" s="7">
         <v>710</v>
@@ -5657,13 +5687,13 @@
         <v>728159</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5681,10 +5711,10 @@
         <v>37</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>409</v>
+        <v>38</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>168</v>
+        <v>413</v>
       </c>
       <c r="H11" s="7">
         <v>690</v>
@@ -5693,13 +5723,13 @@
         <v>697041</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="M11" s="7">
         <v>1445</v>
@@ -5708,13 +5738,13 @@
         <v>1494711</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5729,13 +5759,13 @@
         <v>632434</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="H12" s="7">
         <v>581</v>
@@ -5744,13 +5774,13 @@
         <v>617765</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="M12" s="7">
         <v>1169</v>
@@ -5759,13 +5789,13 @@
         <v>1250199</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5780,13 +5810,13 @@
         <v>215708</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="H13" s="7">
         <v>244</v>
@@ -5795,13 +5825,13 @@
         <v>272852</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="M13" s="7">
         <v>444</v>
@@ -5810,13 +5840,13 @@
         <v>488560</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>233</v>
+        <v>437</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5831,13 +5861,13 @@
         <v>35732</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>147</v>
+        <v>439</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="H14" s="7">
         <v>59</v>
@@ -5846,13 +5876,13 @@
         <v>65471</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>52</v>
+        <v>443</v>
       </c>
       <c r="M14" s="7">
         <v>90</v>
@@ -5861,13 +5891,13 @@
         <v>101202</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>184</v>
+        <v>147</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5882,13 +5912,13 @@
         <v>2074532</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H15" s="7">
         <v>1908</v>
@@ -5897,13 +5927,13 @@
         <v>1988300</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M15" s="7">
         <v>3858</v>
@@ -5912,18 +5942,18 @@
         <v>4062832</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5935,13 +5965,13 @@
         <v>127923</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="H16" s="7">
         <v>94</v>
@@ -5950,13 +5980,13 @@
         <v>94349</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>373</v>
+        <v>449</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="M16" s="7">
         <v>213</v>
@@ -5965,13 +5995,13 @@
         <v>222272</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>443</v>
+        <v>384</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5986,13 +6016,13 @@
         <v>237829</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="H17" s="7">
         <v>212</v>
@@ -6001,28 +6031,28 @@
         <v>216794</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>450</v>
+        <v>418</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="M17" s="7">
         <v>431</v>
       </c>
       <c r="N17" s="7">
-        <v>454623</v>
+        <v>454624</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>167</v>
+        <v>459</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6037,13 +6067,13 @@
         <v>146873</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="H18" s="7">
         <v>170</v>
@@ -6052,13 +6082,13 @@
         <v>182222</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="M18" s="7">
         <v>302</v>
@@ -6067,13 +6097,13 @@
         <v>329096</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6088,13 +6118,13 @@
         <v>25610</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="H19" s="7">
         <v>41</v>
@@ -6103,13 +6133,13 @@
         <v>45207</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="M19" s="7">
         <v>64</v>
@@ -6118,13 +6148,13 @@
         <v>70816</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>469</v>
+        <v>362</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6139,13 +6169,13 @@
         <v>5670</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>276</v>
+        <v>203</v>
       </c>
       <c r="H20" s="7">
         <v>8</v>
@@ -6154,13 +6184,13 @@
         <v>9554</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>271</v>
+        <v>481</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="M20" s="7">
         <v>13</v>
@@ -6169,13 +6199,13 @@
         <v>15223</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>141</v>
+        <v>484</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>183</v>
+        <v>485</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6190,13 +6220,13 @@
         <v>543905</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
         <v>525</v>
@@ -6205,28 +6235,28 @@
         <v>548126</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>1023</v>
       </c>
       <c r="N21" s="7">
-        <v>1092031</v>
+        <v>1092032</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6243,13 +6273,13 @@
         <v>587015</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="H22" s="7">
         <v>479</v>
@@ -6258,13 +6288,13 @@
         <v>482675</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>479</v>
+        <v>488</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="M22" s="7">
         <v>1039</v>
@@ -6273,13 +6303,13 @@
         <v>1069690</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6294,13 +6324,13 @@
         <v>1198715</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>486</v>
+        <v>495</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="H23" s="7">
         <v>1055</v>
@@ -6309,13 +6339,13 @@
         <v>1074521</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>488</v>
+        <v>497</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>489</v>
+        <v>498</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
       <c r="M23" s="7">
         <v>2189</v>
@@ -6324,13 +6354,13 @@
         <v>2273237</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>491</v>
+        <v>500</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>492</v>
+        <v>501</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6345,13 +6375,13 @@
         <v>1055049</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>495</v>
+        <v>504</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
       <c r="H24" s="7">
         <v>1047</v>
@@ -6360,13 +6390,13 @@
         <v>1125589</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>498</v>
+        <v>507</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>499</v>
+        <v>508</v>
       </c>
       <c r="M24" s="7">
         <v>2047</v>
@@ -6375,13 +6405,13 @@
         <v>2180638</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>500</v>
+        <v>509</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>501</v>
+        <v>510</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6396,13 +6426,13 @@
         <v>440876</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>503</v>
+        <v>244</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="H25" s="7">
         <v>578</v>
@@ -6411,13 +6441,13 @@
         <v>654089</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>439</v>
+        <v>516</v>
       </c>
       <c r="M25" s="7">
         <v>1005</v>
@@ -6426,13 +6456,13 @@
         <v>1094965</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6447,13 +6477,13 @@
         <v>91129</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>511</v>
+        <v>520</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="H26" s="7">
         <v>163</v>
@@ -6465,10 +6495,10 @@
         <v>51</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>514</v>
+        <v>523</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>515</v>
+        <v>524</v>
       </c>
       <c r="M26" s="7">
         <v>252</v>
@@ -6477,13 +6507,13 @@
         <v>281126</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>517</v>
+        <v>526</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>518</v>
+        <v>527</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6498,13 +6528,13 @@
         <v>3372784</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
         <v>3322</v>
@@ -6513,33 +6543,33 @@
         <v>3526870</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>6532</v>
       </c>
       <c r="N27" s="7">
-        <v>6899654</v>
+        <v>6899655</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -6558,7 +6588,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{466B251A-CB1E-4A11-9B91-43650562DBCD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{767B8680-59B9-4F94-A1C5-9DFBCF92E07D}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6575,7 +6605,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>519</v>
+        <v>528</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6682,13 +6712,13 @@
         <v>35568</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>520</v>
+        <v>529</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>521</v>
+        <v>195</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="H4" s="7">
         <v>21</v>
@@ -6697,13 +6727,13 @@
         <v>19483</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>523</v>
+        <v>485</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>525</v>
+        <v>532</v>
       </c>
       <c r="M4" s="7">
         <v>65</v>
@@ -6712,13 +6742,13 @@
         <v>55051</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6733,13 +6763,13 @@
         <v>69977</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>528</v>
+        <v>326</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>320</v>
+        <v>535</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="H5" s="7">
         <v>121</v>
@@ -6748,13 +6778,13 @@
         <v>73249</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>282</v>
+        <v>539</v>
       </c>
       <c r="M5" s="7">
         <v>204</v>
@@ -6763,13 +6793,13 @@
         <v>143226</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>532</v>
+        <v>540</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>533</v>
+        <v>430</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>243</v>
+        <v>541</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6784,13 +6814,13 @@
         <v>217436</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>535</v>
+        <v>543</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>536</v>
+        <v>544</v>
       </c>
       <c r="H6" s="7">
         <v>496</v>
@@ -6799,13 +6829,13 @@
         <v>305354</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>537</v>
+        <v>545</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>538</v>
+        <v>546</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>539</v>
+        <v>547</v>
       </c>
       <c r="M6" s="7">
         <v>766</v>
@@ -6814,13 +6844,13 @@
         <v>522790</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>540</v>
+        <v>548</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>541</v>
+        <v>549</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>542</v>
+        <v>550</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6835,13 +6865,13 @@
         <v>156277</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>543</v>
+        <v>551</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>544</v>
+        <v>552</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>545</v>
+        <v>553</v>
       </c>
       <c r="H7" s="7">
         <v>536</v>
@@ -6850,13 +6880,13 @@
         <v>298461</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>546</v>
+        <v>554</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>547</v>
+        <v>555</v>
       </c>
       <c r="M7" s="7">
         <v>742</v>
@@ -6865,13 +6895,13 @@
         <v>454738</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>548</v>
+        <v>556</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>549</v>
+        <v>557</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>550</v>
+        <v>558</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6886,13 +6916,13 @@
         <v>57629</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>551</v>
+        <v>559</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>552</v>
+        <v>560</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>553</v>
+        <v>561</v>
       </c>
       <c r="H8" s="7">
         <v>233</v>
@@ -6901,13 +6931,13 @@
         <v>128496</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>554</v>
+        <v>562</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>556</v>
+        <v>564</v>
       </c>
       <c r="M8" s="7">
         <v>315</v>
@@ -6916,13 +6946,13 @@
         <v>186125</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>557</v>
+        <v>565</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>558</v>
+        <v>566</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>404</v>
+        <v>567</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6937,13 +6967,13 @@
         <v>536887</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H9" s="7">
         <v>1407</v>
@@ -6952,13 +6982,13 @@
         <v>825043</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
         <v>2092</v>
@@ -6967,18 +6997,18 @@
         <v>1361930</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -6990,13 +7020,13 @@
         <v>252509</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>559</v>
+        <v>568</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>560</v>
+        <v>569</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>561</v>
+        <v>380</v>
       </c>
       <c r="H10" s="7">
         <v>174</v>
@@ -7005,13 +7035,13 @@
         <v>174810</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>309</v>
+        <v>570</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>562</v>
+        <v>571</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>563</v>
+        <v>572</v>
       </c>
       <c r="M10" s="7">
         <v>331</v>
@@ -7020,13 +7050,13 @@
         <v>427319</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>564</v>
+        <v>59</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>565</v>
+        <v>573</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>566</v>
+        <v>574</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7041,13 +7071,13 @@
         <v>674009</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>567</v>
+        <v>575</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>569</v>
+        <v>577</v>
       </c>
       <c r="H11" s="7">
         <v>738</v>
@@ -7056,13 +7086,13 @@
         <v>608875</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>571</v>
+        <v>163</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="M11" s="7">
         <v>1319</v>
@@ -7071,13 +7101,13 @@
         <v>1282884</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>574</v>
+        <v>581</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>575</v>
+        <v>557</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7092,13 +7122,13 @@
         <v>918774</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="H12" s="7">
         <v>1382</v>
@@ -7107,13 +7137,13 @@
         <v>1079731</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="M12" s="7">
         <v>2284</v>
@@ -7122,13 +7152,13 @@
         <v>1998506</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7143,13 +7173,13 @@
         <v>255220</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="H13" s="7">
         <v>524</v>
@@ -7158,13 +7188,13 @@
         <v>324879</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="M13" s="7">
         <v>806</v>
@@ -7173,13 +7203,13 @@
         <v>580099</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7194,13 +7224,13 @@
         <v>52219</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>594</v>
+        <v>358</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>140</v>
+        <v>600</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="H14" s="7">
         <v>93</v>
@@ -7209,13 +7239,13 @@
         <v>54975</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>596</v>
+        <v>442</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="M14" s="7">
         <v>154</v>
@@ -7224,13 +7254,13 @@
         <v>107194</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>600</v>
+        <v>147</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>302</v>
+        <v>605</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7245,13 +7275,13 @@
         <v>2152732</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H15" s="7">
         <v>2911</v>
@@ -7260,13 +7290,13 @@
         <v>2243270</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M15" s="7">
         <v>4894</v>
@@ -7275,18 +7305,18 @@
         <v>4396002</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7298,13 +7328,13 @@
         <v>86560</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>372</v>
+        <v>608</v>
       </c>
       <c r="H16" s="7">
         <v>110</v>
@@ -7313,13 +7343,13 @@
         <v>88125</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>112</v>
+        <v>609</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>206</v>
+        <v>610</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>603</v>
+        <v>611</v>
       </c>
       <c r="M16" s="7">
         <v>178</v>
@@ -7328,13 +7358,13 @@
         <v>174686</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>604</v>
+        <v>612</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>605</v>
+        <v>613</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>606</v>
+        <v>614</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7349,13 +7379,13 @@
         <v>194749</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>607</v>
+        <v>615</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>608</v>
+        <v>616</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>609</v>
+        <v>617</v>
       </c>
       <c r="H17" s="7">
         <v>287</v>
@@ -7364,13 +7394,13 @@
         <v>225971</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>610</v>
+        <v>618</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>611</v>
+        <v>619</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>612</v>
+        <v>620</v>
       </c>
       <c r="M17" s="7">
         <v>473</v>
@@ -7379,13 +7409,13 @@
         <v>420720</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>613</v>
+        <v>621</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>614</v>
+        <v>622</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>615</v>
+        <v>623</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7400,13 +7430,13 @@
         <v>319788</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>618</v>
+        <v>626</v>
       </c>
       <c r="H18" s="7">
         <v>477</v>
@@ -7415,13 +7445,13 @@
         <v>322174</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>619</v>
+        <v>119</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>620</v>
+        <v>627</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>621</v>
+        <v>628</v>
       </c>
       <c r="M18" s="7">
         <v>822</v>
@@ -7430,13 +7460,13 @@
         <v>641962</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>622</v>
+        <v>629</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>446</v>
+        <v>630</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>623</v>
+        <v>631</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7451,13 +7481,13 @@
         <v>60277</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>624</v>
+        <v>632</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>625</v>
+        <v>89</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>626</v>
+        <v>633</v>
       </c>
       <c r="H19" s="7">
         <v>108</v>
@@ -7466,13 +7496,13 @@
         <v>62924</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>627</v>
+        <v>634</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>13</v>
+        <v>635</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>628</v>
+        <v>636</v>
       </c>
       <c r="M19" s="7">
         <v>175</v>
@@ -7481,13 +7511,13 @@
         <v>123202</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>629</v>
+        <v>96</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>631</v>
+        <v>638</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7502,13 +7532,13 @@
         <v>9344</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>632</v>
+        <v>639</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>633</v>
+        <v>640</v>
       </c>
       <c r="H20" s="7">
         <v>19</v>
@@ -7517,13 +7547,13 @@
         <v>11453</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>635</v>
+        <v>642</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>636</v>
+        <v>643</v>
       </c>
       <c r="M20" s="7">
         <v>32</v>
@@ -7532,13 +7562,13 @@
         <v>20797</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>637</v>
+        <v>644</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>638</v>
+        <v>478</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>639</v>
+        <v>521</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7553,13 +7583,13 @@
         <v>670718</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
         <v>1001</v>
@@ -7568,13 +7598,13 @@
         <v>710648</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>1680</v>
@@ -7583,13 +7613,13 @@
         <v>1381366</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7606,13 +7636,13 @@
         <v>374637</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>640</v>
+        <v>645</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>234</v>
+        <v>646</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>641</v>
+        <v>647</v>
       </c>
       <c r="H22" s="7">
         <v>305</v>
@@ -7624,10 +7654,10 @@
         <v>58</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>469</v>
+        <v>648</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>642</v>
+        <v>649</v>
       </c>
       <c r="M22" s="7">
         <v>574</v>
@@ -7636,13 +7666,13 @@
         <v>657056</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>55</v>
+        <v>430</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>643</v>
+        <v>650</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>156</v>
+        <v>651</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7654,16 +7684,16 @@
         <v>850</v>
       </c>
       <c r="D23" s="7">
-        <v>938735</v>
+        <v>938734</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>645</v>
+        <v>653</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>646</v>
+        <v>654</v>
       </c>
       <c r="H23" s="7">
         <v>1146</v>
@@ -7672,13 +7702,13 @@
         <v>908095</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>647</v>
+        <v>655</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>648</v>
+        <v>656</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>649</v>
+        <v>657</v>
       </c>
       <c r="M23" s="7">
         <v>1996</v>
@@ -7687,13 +7717,13 @@
         <v>1846830</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>650</v>
+        <v>658</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>331</v>
+        <v>659</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>651</v>
+        <v>660</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7708,13 +7738,13 @@
         <v>1455999</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>652</v>
+        <v>661</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>653</v>
+        <v>662</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>286</v>
+        <v>663</v>
       </c>
       <c r="H24" s="7">
         <v>2355</v>
@@ -7723,13 +7753,13 @@
         <v>1707259</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>654</v>
+        <v>664</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>655</v>
+        <v>72</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>656</v>
+        <v>665</v>
       </c>
       <c r="M24" s="7">
         <v>3872</v>
@@ -7738,13 +7768,13 @@
         <v>3163258</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>657</v>
+        <v>666</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>658</v>
+        <v>582</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>659</v>
+        <v>667</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7759,13 +7789,13 @@
         <v>471775</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>660</v>
+        <v>668</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>661</v>
+        <v>669</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>404</v>
+        <v>670</v>
       </c>
       <c r="H25" s="7">
         <v>1168</v>
@@ -7774,13 +7804,13 @@
         <v>686264</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>662</v>
+        <v>671</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>663</v>
+        <v>672</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>664</v>
+        <v>673</v>
       </c>
       <c r="M25" s="7">
         <v>1723</v>
@@ -7789,13 +7819,13 @@
         <v>1158039</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>665</v>
+        <v>674</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>666</v>
+        <v>675</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7810,13 +7840,13 @@
         <v>119192</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>667</v>
+        <v>676</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>668</v>
+        <v>307</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>189</v>
+        <v>677</v>
       </c>
       <c r="H26" s="7">
         <v>345</v>
@@ -7825,13 +7855,13 @@
         <v>194924</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>669</v>
+        <v>678</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>670</v>
+        <v>679</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>671</v>
+        <v>312</v>
       </c>
       <c r="M26" s="7">
         <v>501</v>
@@ -7840,13 +7870,13 @@
         <v>314117</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>672</v>
+        <v>680</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>145</v>
+        <v>681</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>358</v>
+        <v>682</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7858,16 +7888,16 @@
         <v>3347</v>
       </c>
       <c r="D27" s="7">
-        <v>3360338</v>
+        <v>3360337</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
         <v>5319</v>
@@ -7876,13 +7906,13 @@
         <v>3778960</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>8666</v>
@@ -7891,18 +7921,18 @@
         <v>7139298</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/RGH1-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/RGH1-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9DF10872-4763-4527-A07D-C2DE46C84D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{265E4F1A-B4F3-4F97-9084-56995EABE811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FAE34D52-1E24-4DBB-935F-5BAC30E275D2}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{77E4B74F-82DD-4A15-8694-7026BE352E5D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="683">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="677">
   <si>
     <t>Población según nivel de salud general autopercibida en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -77,1965 +77,1950 @@
     <t>5,5%</t>
   </si>
   <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
   </si>
   <si>
     <t>3,63%</t>
   </si>
   <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
   </si>
   <si>
     <t>4,45%</t>
   </si>
   <si>
-    <t>3,6%</t>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>MUY BUENA</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>BUENA</t>
+  </si>
+  <si>
+    <t>42,51%</t>
+  </si>
+  <si>
+    <t>39,43%</t>
+  </si>
+  <si>
+    <t>45,5%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>37,9%</t>
+  </si>
+  <si>
+    <t>38,45%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>40,46%</t>
+  </si>
+  <si>
+    <t>REGULAR</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>38,59%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>41,26%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>MALA</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>45,33%</t>
+  </si>
+  <si>
+    <t>42,9%</t>
+  </si>
+  <si>
+    <t>47,75%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>36,26%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>36,37%</t>
+  </si>
+  <si>
+    <t>44,89%</t>
+  </si>
+  <si>
+    <t>42,56%</t>
+  </si>
+  <si>
+    <t>47,32%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>40,67%</t>
+  </si>
+  <si>
+    <t>36,78%</t>
+  </si>
+  <si>
+    <t>45,07%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>35,17%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>39,56%</t>
+  </si>
+  <si>
+    <t>41,14%</t>
+  </si>
+  <si>
+    <t>36,81%</t>
+  </si>
+  <si>
+    <t>45,84%</t>
+  </si>
+  <si>
+    <t>37,94%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>41,15%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>38,24%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>36,88%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>38,42%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>38,98%</t>
+  </si>
+  <si>
+    <t>42,34%</t>
+  </si>
+  <si>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
+  </si>
+  <si>
+    <t>39,97%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según nivel de salud general autopercibida en 2012 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>43,99%</t>
+  </si>
+  <si>
+    <t>40,72%</t>
+  </si>
+  <si>
+    <t>47,38%</t>
+  </si>
+  <si>
+    <t>39,88%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>42,69%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>39,66%</t>
+  </si>
+  <si>
+    <t>43,68%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>38,17%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>41,65%</t>
+  </si>
+  <si>
+    <t>39,21%</t>
+  </si>
+  <si>
+    <t>43,98%</t>
+  </si>
+  <si>
+    <t>46,01%</t>
+  </si>
+  <si>
+    <t>43,51%</t>
+  </si>
+  <si>
+    <t>48,83%</t>
+  </si>
+  <si>
+    <t>43,71%</t>
+  </si>
+  <si>
+    <t>42,04%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>41,53%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>46,17%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>35,99%</t>
+  </si>
+  <si>
+    <t>36,8%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>37,82%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>42,91%</t>
+  </si>
+  <si>
+    <t>49,36%</t>
+  </si>
+  <si>
+    <t>44,7%</t>
+  </si>
+  <si>
+    <t>54,42%</t>
+  </si>
+  <si>
+    <t>43,46%</t>
+  </si>
+  <si>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>46,62%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>40,19%</t>
+  </si>
+  <si>
+    <t>43,62%</t>
+  </si>
+  <si>
+    <t>44,14%</t>
+  </si>
+  <si>
+    <t>42,44%</t>
+  </si>
+  <si>
+    <t>46,05%</t>
+  </si>
+  <si>
+    <t>42,98%</t>
+  </si>
+  <si>
+    <t>41,84%</t>
+  </si>
+  <si>
+    <t>44,3%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>Población según nivel de salud general autopercibida en 2016 (Tasa respuesta: 99,86%)</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>36,92%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>36,9%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>35,97%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>37,36%</t>
+  </si>
+  <si>
+    <t>36,79%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>43,73%</t>
+  </si>
+  <si>
+    <t>48,73%</t>
+  </si>
+  <si>
+    <t>39,55%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>43,96%</t>
+  </si>
+  <si>
+    <t>41,63%</t>
+  </si>
+  <si>
+    <t>45,0%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>37,47%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>37,15%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>Población según nivel de salud general autopercibida en 2023 (Tasa respuesta: 99,38%)</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
   </si>
   <si>
     <t>5,33%</t>
   </si>
   <si>
-    <t>MUY BUENA</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>BUENA</t>
-  </si>
-  <si>
-    <t>42,51%</t>
-  </si>
-  <si>
-    <t>39,79%</t>
-  </si>
-  <si>
-    <t>45,71%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>37,7%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>36,33%</t>
-  </si>
-  <si>
-    <t>40,51%</t>
-  </si>
-  <si>
-    <t>REGULAR</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>38,59%</t>
-  </si>
-  <si>
-    <t>35,91%</t>
-  </si>
-  <si>
-    <t>41,39%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>MALA</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>40,5%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
+  </si>
+  <si>
+    <t>44,55%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>40,05%</t>
+  </si>
+  <si>
+    <t>38,39%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
+  </si>
+  <si>
+    <t>39,24%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>35,48%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
   </si>
   <si>
     <t>9,72%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>45,33%</t>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>42,68%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
+  </si>
+  <si>
+    <t>47,27%</t>
+  </si>
+  <si>
+    <t>48,13%</t>
+  </si>
+  <si>
+    <t>44,67%</t>
+  </si>
+  <si>
+    <t>55,77%</t>
+  </si>
+  <si>
+    <t>45,46%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
+  </si>
+  <si>
+    <t>50,3%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>47,68%</t>
+  </si>
+  <si>
+    <t>43,22%</t>
+  </si>
+  <si>
+    <t>51,52%</t>
+  </si>
+  <si>
+    <t>45,34%</t>
+  </si>
+  <si>
+    <t>42,08%</t>
+  </si>
+  <si>
+    <t>48,68%</t>
+  </si>
+  <si>
+    <t>46,47%</t>
+  </si>
+  <si>
+    <t>43,94%</t>
+  </si>
+  <si>
+    <t>49,14%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>43,33%</t>
+  </si>
+  <si>
+    <t>41,2%</t>
+  </si>
+  <si>
+    <t>46,4%</t>
+  </si>
+  <si>
+    <t>45,18%</t>
   </si>
   <si>
     <t>42,96%</t>
   </si>
   <si>
-    <t>48,06%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>36,21%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>44,89%</t>
-  </si>
-  <si>
-    <t>42,27%</t>
-  </si>
-  <si>
-    <t>47,34%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>37,77%</t>
-  </si>
-  <si>
-    <t>41,17%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>40,67%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>45,34%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>39,65%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>41,14%</t>
-  </si>
-  <si>
-    <t>37,03%</t>
-  </si>
-  <si>
-    <t>46,2%</t>
-  </si>
-  <si>
-    <t>37,94%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>41,01%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>38,04%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>36,88%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>38,89%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>38,94%</t>
-  </si>
-  <si>
-    <t>42,31%</t>
-  </si>
-  <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>37,61%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según nivel de salud general autopercibida en 2012 (Tasa respuesta: 99,83%)</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>43,99%</t>
-  </si>
-  <si>
-    <t>40,79%</t>
-  </si>
-  <si>
-    <t>47,38%</t>
-  </si>
-  <si>
-    <t>39,88%</t>
-  </si>
-  <si>
-    <t>37,14%</t>
-  </si>
-  <si>
-    <t>42,5%</t>
-  </si>
-  <si>
-    <t>41,61%</t>
-  </si>
-  <si>
-    <t>39,52%</t>
-  </si>
-  <si>
-    <t>43,55%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>41,65%</t>
-  </si>
-  <si>
-    <t>39,38%</t>
-  </si>
-  <si>
-    <t>43,84%</t>
-  </si>
-  <si>
-    <t>46,01%</t>
-  </si>
-  <si>
-    <t>48,65%</t>
-  </si>
-  <si>
-    <t>43,71%</t>
-  </si>
-  <si>
-    <t>42,03%</t>
-  </si>
-  <si>
-    <t>45,41%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>41,53%</t>
-  </si>
-  <si>
-    <t>46,04%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>36,8%</t>
-  </si>
-  <si>
-    <t>33,47%</t>
-  </si>
-  <si>
-    <t>40,03%</t>
-  </si>
-  <si>
-    <t>37,82%</t>
-  </si>
-  <si>
-    <t>42,59%</t>
-  </si>
-  <si>
-    <t>49,36%</t>
-  </si>
-  <si>
-    <t>44,53%</t>
-  </si>
-  <si>
-    <t>54,84%</t>
-  </si>
-  <si>
-    <t>43,46%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>46,96%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>43,64%</t>
-  </si>
-  <si>
-    <t>44,14%</t>
-  </si>
-  <si>
-    <t>42,36%</t>
-  </si>
-  <si>
-    <t>45,79%</t>
-  </si>
-  <si>
-    <t>42,98%</t>
-  </si>
-  <si>
-    <t>41,74%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>Población según nivel de salud general autopercibida en 2015 (Tasa respuesta: 99,86%)</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>39,72%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>36,78%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>37,56%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
-  </si>
-  <si>
-    <t>38,19%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>43,73%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>47,69%</t>
-  </si>
-  <si>
-    <t>39,55%</t>
-  </si>
-  <si>
-    <t>43,32%</t>
-  </si>
-  <si>
-    <t>41,63%</t>
-  </si>
-  <si>
-    <t>38,91%</t>
-  </si>
-  <si>
-    <t>44,81%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>34,03%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>Población según nivel de salud general autopercibida en 2023 (Tasa respuesta: 99,38%)</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>40,5%</t>
-  </si>
-  <si>
-    <t>36,47%</t>
-  </si>
-  <si>
-    <t>44,55%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>40,05%</t>
-  </si>
-  <si>
-    <t>38,39%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>40,99%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>36,18%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>39,92%</t>
-  </si>
-  <si>
-    <t>47,27%</t>
-  </si>
-  <si>
-    <t>48,13%</t>
-  </si>
-  <si>
-    <t>44,67%</t>
-  </si>
-  <si>
-    <t>55,77%</t>
-  </si>
-  <si>
-    <t>45,46%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>50,3%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>47,68%</t>
-  </si>
-  <si>
-    <t>43,22%</t>
-  </si>
-  <si>
-    <t>51,52%</t>
-  </si>
-  <si>
-    <t>42,08%</t>
-  </si>
-  <si>
-    <t>48,68%</t>
-  </si>
-  <si>
-    <t>46,47%</t>
-  </si>
-  <si>
-    <t>43,94%</t>
-  </si>
-  <si>
-    <t>49,14%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>43,33%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
-  </si>
-  <si>
-    <t>46,4%</t>
-  </si>
-  <si>
-    <t>45,18%</t>
-  </si>
-  <si>
     <t>51,14%</t>
   </si>
   <si>
@@ -2049,9 +2034,6 @@
   </si>
   <si>
     <t>12,74%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
   </si>
   <si>
     <t>18,16%</t>
@@ -2499,7 +2481,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4607ADDB-EA15-4237-B74A-7A42CB08FACE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE86032F-EBB7-476C-93D7-3462E7B61962}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3461,10 +3443,10 @@
         <v>147</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>98</v>
+        <v>148</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M20" s="7">
         <v>17</v>
@@ -3473,13 +3455,13 @@
         <v>19448</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3547,13 +3529,13 @@
         <v>359346</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>25</v>
+        <v>154</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H22" s="7">
         <v>254</v>
@@ -3562,13 +3544,13 @@
         <v>260759</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M22" s="7">
         <v>600</v>
@@ -3577,13 +3559,13 @@
         <v>620105</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3598,13 +3580,13 @@
         <v>1195774</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H23" s="7">
         <v>771</v>
@@ -3613,13 +3595,13 @@
         <v>778377</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M23" s="7">
         <v>1932</v>
@@ -3628,13 +3610,13 @@
         <v>1974151</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3649,13 +3631,13 @@
         <v>1207931</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H24" s="7">
         <v>1336</v>
@@ -3664,13 +3646,13 @@
         <v>1372349</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M24" s="7">
         <v>2530</v>
@@ -3679,13 +3661,13 @@
         <v>2580280</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3700,13 +3682,13 @@
         <v>431855</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>180</v>
+        <v>64</v>
       </c>
       <c r="H25" s="7">
         <v>747</v>
@@ -3715,13 +3697,13 @@
         <v>772351</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M25" s="7">
         <v>1177</v>
@@ -3730,13 +3712,13 @@
         <v>1204205</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>186</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3784,10 +3766,10 @@
         <v>193</v>
       </c>
       <c r="P26" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3843,7 +3825,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -3862,7 +3844,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF46732B-03E8-45E8-8A86-A5761A85E643}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6DCF525-854F-4E6A-836A-4BE2D4CD992F}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3879,7 +3861,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3986,13 +3968,13 @@
         <v>41526</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="H4" s="7">
         <v>18</v>
@@ -4001,13 +3983,13 @@
         <v>19945</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="M4" s="7">
         <v>59</v>
@@ -4016,13 +3998,13 @@
         <v>61471</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4037,13 +4019,13 @@
         <v>163432</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="H5" s="7">
         <v>146</v>
@@ -4052,13 +4034,13 @@
         <v>157059</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="M5" s="7">
         <v>300</v>
@@ -4067,13 +4049,13 @@
         <v>320491</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4088,13 +4070,13 @@
         <v>428700</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="H6" s="7">
         <v>494</v>
@@ -4103,13 +4085,13 @@
         <v>533180</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="M6" s="7">
         <v>898</v>
@@ -4118,13 +4100,13 @@
         <v>961880</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4139,13 +4121,13 @@
         <v>267720</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="H7" s="7">
         <v>445</v>
@@ -4154,13 +4136,13 @@
         <v>474182</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="M7" s="7">
         <v>688</v>
@@ -4169,13 +4151,13 @@
         <v>741902</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4190,13 +4172,13 @@
         <v>73265</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="H8" s="7">
         <v>143</v>
@@ -4205,13 +4187,13 @@
         <v>152485</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="M8" s="7">
         <v>209</v>
@@ -4220,13 +4202,13 @@
         <v>225750</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>242</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4294,13 +4276,13 @@
         <v>286839</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H10" s="7">
         <v>161</v>
@@ -4309,13 +4291,13 @@
         <v>166309</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>247</v>
+        <v>66</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="M10" s="7">
         <v>437</v>
@@ -4324,13 +4306,13 @@
         <v>453148</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>115</v>
+        <v>245</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>54</v>
+        <v>246</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4345,13 +4327,13 @@
         <v>658207</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>251</v>
+        <v>48</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H11" s="7">
         <v>467</v>
@@ -4360,13 +4342,13 @@
         <v>496896</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="M11" s="7">
         <v>1101</v>
@@ -4375,13 +4357,13 @@
         <v>1155103</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4396,13 +4378,13 @@
         <v>815927</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="H12" s="7">
         <v>748</v>
@@ -4411,13 +4393,13 @@
         <v>807451</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>224</v>
+        <v>260</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="M12" s="7">
         <v>1503</v>
@@ -4426,13 +4408,13 @@
         <v>1623378</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4447,13 +4429,13 @@
         <v>174844</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="H13" s="7">
         <v>218</v>
@@ -4462,13 +4444,13 @@
         <v>240604</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="M13" s="7">
         <v>383</v>
@@ -4477,13 +4459,13 @@
         <v>415448</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4498,13 +4480,13 @@
         <v>23057</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="H14" s="7">
         <v>39</v>
@@ -4513,13 +4495,13 @@
         <v>43621</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="M14" s="7">
         <v>60</v>
@@ -4531,10 +4513,10 @@
         <v>280</v>
       </c>
       <c r="P14" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4546,7 +4528,7 @@
         <v>1851</v>
       </c>
       <c r="D15" s="7">
-        <v>1958873</v>
+        <v>1958874</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -4605,10 +4587,10 @@
         <v>114</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>285</v>
       </c>
       <c r="H16" s="7">
         <v>46</v>
@@ -4617,7 +4599,7 @@
         <v>50740</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>242</v>
+        <v>285</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>286</v>
@@ -4632,13 +4614,13 @@
         <v>120324</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>109</v>
+        <v>288</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4653,13 +4635,13 @@
         <v>199020</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>130</v>
+        <v>292</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H17" s="7">
         <v>133</v>
@@ -4668,13 +4650,13 @@
         <v>145713</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="M17" s="7">
         <v>320</v>
@@ -4683,13 +4665,13 @@
         <v>344734</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4704,13 +4686,13 @@
         <v>181241</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>47</v>
+        <v>301</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="H18" s="7">
         <v>201</v>
@@ -4719,13 +4701,13 @@
         <v>225906</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="M18" s="7">
         <v>369</v>
@@ -4734,13 +4716,13 @@
         <v>407147</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4755,13 +4737,13 @@
         <v>24203</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="H19" s="7">
         <v>27</v>
@@ -4770,13 +4752,13 @@
         <v>30166</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="M19" s="7">
         <v>44</v>
@@ -4785,13 +4767,13 @@
         <v>54369</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4806,13 +4788,13 @@
         <v>5193</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -4821,13 +4803,13 @@
         <v>5120</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="M20" s="7">
         <v>8</v>
@@ -4836,13 +4818,13 @@
         <v>10313</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4910,13 +4892,13 @@
         <v>397949</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="H22" s="7">
         <v>225</v>
@@ -4925,13 +4907,13 @@
         <v>236994</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="M22" s="7">
         <v>602</v>
@@ -4940,13 +4922,13 @@
         <v>634944</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>238</v>
+        <v>335</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4961,13 +4943,13 @@
         <v>1020659</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>334</v>
+        <v>120</v>
       </c>
       <c r="H23" s="7">
         <v>746</v>
@@ -4976,13 +4958,13 @@
         <v>799669</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>335</v>
+        <v>23</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="M23" s="7">
         <v>1721</v>
@@ -4991,13 +4973,13 @@
         <v>1820328</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5012,13 +4994,13 @@
         <v>1425868</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="H24" s="7">
         <v>1443</v>
@@ -5027,13 +5009,13 @@
         <v>1566537</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="M24" s="7">
         <v>2770</v>
@@ -5042,13 +5024,13 @@
         <v>2992406</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5063,13 +5045,13 @@
         <v>466767</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="H25" s="7">
         <v>690</v>
@@ -5078,13 +5060,13 @@
         <v>744952</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="M25" s="7">
         <v>1115</v>
@@ -5093,13 +5075,13 @@
         <v>1211719</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>285</v>
+        <v>360</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5114,13 +5096,13 @@
         <v>101515</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>307</v>
+        <v>361</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>359</v>
+        <v>14</v>
       </c>
       <c r="H26" s="7">
         <v>186</v>
@@ -5129,13 +5111,13 @@
         <v>201225</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="M26" s="7">
         <v>277</v>
@@ -5144,13 +5126,13 @@
         <v>302741</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5206,7 +5188,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -5225,7 +5207,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD5D1942-72E9-4EB7-B824-9533D5005C29}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1CC8147-ADB8-4CC0-BEE8-EF9C6A0C2FD0}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5242,7 +5224,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5349,13 +5331,13 @@
         <v>66103</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="H4" s="7">
         <v>51</v>
@@ -5364,13 +5346,13 @@
         <v>53155</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>372</v>
+        <v>157</v>
       </c>
       <c r="M4" s="7">
         <v>116</v>
@@ -5379,13 +5361,13 @@
         <v>119258</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5400,13 +5382,13 @@
         <v>163216</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="H5" s="7">
         <v>153</v>
@@ -5415,13 +5397,13 @@
         <v>160686</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="M5" s="7">
         <v>313</v>
@@ -5430,13 +5412,13 @@
         <v>323902</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>383</v>
+        <v>116</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5451,13 +5433,13 @@
         <v>275741</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H6" s="7">
         <v>296</v>
@@ -5466,13 +5448,13 @@
         <v>325602</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>38</v>
+        <v>122</v>
       </c>
       <c r="M6" s="7">
         <v>576</v>
@@ -5481,13 +5463,13 @@
         <v>601343</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>231</v>
+        <v>392</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5502,13 +5484,13 @@
         <v>199558</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="H7" s="7">
         <v>293</v>
@@ -5517,13 +5499,13 @@
         <v>336030</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>127</v>
+        <v>398</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="M7" s="7">
         <v>497</v>
@@ -5532,13 +5514,13 @@
         <v>535588</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>167</v>
+        <v>401</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5553,13 +5535,13 @@
         <v>49728</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>91</v>
+        <v>404</v>
       </c>
       <c r="H8" s="7">
         <v>96</v>
@@ -5568,13 +5550,13 @@
         <v>114972</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="M8" s="7">
         <v>149</v>
@@ -5583,13 +5565,13 @@
         <v>164700</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>54</v>
+        <v>410</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5657,13 +5639,13 @@
         <v>392989</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="H10" s="7">
         <v>334</v>
@@ -5672,13 +5654,13 @@
         <v>335171</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="M10" s="7">
         <v>710</v>
@@ -5687,13 +5669,13 @@
         <v>728159</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5711,10 +5693,10 @@
         <v>37</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>38</v>
+        <v>420</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="H11" s="7">
         <v>690</v>
@@ -5723,13 +5705,13 @@
         <v>697041</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="M11" s="7">
         <v>1445</v>
@@ -5738,13 +5720,13 @@
         <v>1494711</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5759,13 +5741,13 @@
         <v>632434</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>422</v>
+        <v>255</v>
       </c>
       <c r="H12" s="7">
         <v>581</v>
@@ -5774,13 +5756,13 @@
         <v>617765</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="M12" s="7">
         <v>1169</v>
@@ -5789,13 +5771,13 @@
         <v>1250199</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>426</v>
+        <v>170</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5810,13 +5792,13 @@
         <v>215708</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="H13" s="7">
         <v>244</v>
@@ -5825,13 +5807,13 @@
         <v>272852</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="M13" s="7">
         <v>444</v>
@@ -5840,13 +5822,13 @@
         <v>488560</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5861,13 +5843,13 @@
         <v>35732</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="H14" s="7">
         <v>59</v>
@@ -5876,13 +5858,13 @@
         <v>65471</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>442</v>
+        <v>277</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>443</v>
+        <v>52</v>
       </c>
       <c r="M14" s="7">
         <v>90</v>
@@ -5891,13 +5873,13 @@
         <v>101202</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>147</v>
+        <v>448</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>444</v>
+        <v>310</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5965,13 +5947,13 @@
         <v>127923</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="H16" s="7">
         <v>94</v>
@@ -5980,13 +5962,13 @@
         <v>94349</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>450</v>
+        <v>413</v>
       </c>
       <c r="M16" s="7">
         <v>213</v>
@@ -5995,13 +5977,13 @@
         <v>222272</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6016,13 +5998,13 @@
         <v>237829</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>454</v>
+        <v>32</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="H17" s="7">
         <v>212</v>
@@ -6031,28 +6013,28 @@
         <v>216794</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>418</v>
+        <v>459</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="M17" s="7">
         <v>431</v>
       </c>
       <c r="N17" s="7">
-        <v>454624</v>
+        <v>454623</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>459</v>
+        <v>177</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6067,13 +6049,13 @@
         <v>146873</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>462</v>
+        <v>182</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H18" s="7">
         <v>170</v>
@@ -6082,7 +6064,7 @@
         <v>182222</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>464</v>
+        <v>124</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>465</v>
@@ -6097,13 +6079,13 @@
         <v>329096</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>467</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>468</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6118,13 +6100,13 @@
         <v>25610</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>470</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>471</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>472</v>
       </c>
       <c r="H19" s="7">
         <v>41</v>
@@ -6133,13 +6115,13 @@
         <v>45207</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>473</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>474</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>475</v>
       </c>
       <c r="M19" s="7">
         <v>64</v>
@@ -6148,13 +6130,13 @@
         <v>70816</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>362</v>
+        <v>474</v>
       </c>
       <c r="P19" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>476</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6169,13 +6151,13 @@
         <v>5670</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>478</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>479</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="H20" s="7">
         <v>8</v>
@@ -6190,7 +6172,7 @@
         <v>481</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>482</v>
+        <v>279</v>
       </c>
       <c r="M20" s="7">
         <v>13</v>
@@ -6199,13 +6181,13 @@
         <v>15223</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>483</v>
       </c>
-      <c r="P20" s="7" t="s">
-        <v>484</v>
-      </c>
       <c r="Q20" s="7" t="s">
-        <v>485</v>
+        <v>362</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6247,7 +6229,7 @@
         <v>1023</v>
       </c>
       <c r="N21" s="7">
-        <v>1092032</v>
+        <v>1092031</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>60</v>
@@ -6273,13 +6255,13 @@
         <v>587015</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H22" s="7">
         <v>479</v>
@@ -6288,13 +6270,13 @@
         <v>482675</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>488</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>489</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>490</v>
       </c>
       <c r="M22" s="7">
         <v>1039</v>
@@ -6303,13 +6285,13 @@
         <v>1069690</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>491</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>492</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6324,13 +6306,13 @@
         <v>1198715</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>494</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>495</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>496</v>
       </c>
       <c r="H23" s="7">
         <v>1055</v>
@@ -6339,13 +6321,13 @@
         <v>1074521</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>497</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>498</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>499</v>
       </c>
       <c r="M23" s="7">
         <v>2189</v>
@@ -6354,13 +6336,13 @@
         <v>2273237</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>500</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6375,13 +6357,13 @@
         <v>1055049</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>505</v>
+        <v>432</v>
       </c>
       <c r="H24" s="7">
         <v>1047</v>
@@ -6390,13 +6372,13 @@
         <v>1125589</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="M24" s="7">
         <v>2047</v>
@@ -6405,13 +6387,13 @@
         <v>2180638</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6426,13 +6408,13 @@
         <v>440876</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>244</v>
+        <v>509</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="H25" s="7">
         <v>578</v>
@@ -6441,13 +6423,13 @@
         <v>654089</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>514</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>515</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>516</v>
       </c>
       <c r="M25" s="7">
         <v>1005</v>
@@ -6456,13 +6438,13 @@
         <v>1094965</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>517</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>518</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6477,13 +6459,13 @@
         <v>91129</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>520</v>
+        <v>320</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="H26" s="7">
         <v>163</v>
@@ -6495,10 +6477,10 @@
         <v>51</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="M26" s="7">
         <v>252</v>
@@ -6507,13 +6489,13 @@
         <v>281126</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>526</v>
+        <v>14</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6555,7 +6537,7 @@
         <v>6532</v>
       </c>
       <c r="N27" s="7">
-        <v>6899655</v>
+        <v>6899654</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
@@ -6569,7 +6551,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -6588,7 +6570,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{767B8680-59B9-4F94-A1C5-9DFBCF92E07D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18B2CC07-130C-4AEB-9BBA-CA525D9DA953}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6605,7 +6587,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6712,13 +6694,13 @@
         <v>35568</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>195</v>
+        <v>526</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>530</v>
+        <v>137</v>
       </c>
       <c r="H4" s="7">
         <v>21</v>
@@ -6727,13 +6709,13 @@
         <v>19483</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>485</v>
+        <v>527</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="M4" s="7">
         <v>65</v>
@@ -6742,13 +6724,13 @@
         <v>55051</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>19</v>
+        <v>532</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6763,13 +6745,13 @@
         <v>69977</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>326</v>
+        <v>443</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="H5" s="7">
         <v>121</v>
@@ -6778,13 +6760,13 @@
         <v>73249</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>537</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>538</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>539</v>
       </c>
       <c r="M5" s="7">
         <v>204</v>
@@ -6793,13 +6775,13 @@
         <v>143226</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>540</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6814,13 +6796,13 @@
         <v>217436</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>542</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>543</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>544</v>
       </c>
       <c r="H6" s="7">
         <v>496</v>
@@ -6829,13 +6811,13 @@
         <v>305354</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>545</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>546</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>547</v>
       </c>
       <c r="M6" s="7">
         <v>766</v>
@@ -6844,13 +6826,13 @@
         <v>522790</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>548</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>549</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6865,13 +6847,13 @@
         <v>156277</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>551</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>552</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>553</v>
       </c>
       <c r="H7" s="7">
         <v>536</v>
@@ -6880,13 +6862,13 @@
         <v>298461</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>554</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>555</v>
       </c>
       <c r="M7" s="7">
         <v>742</v>
@@ -6895,13 +6877,13 @@
         <v>454738</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>556</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>557</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6916,13 +6898,13 @@
         <v>57629</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>559</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>560</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>561</v>
       </c>
       <c r="H8" s="7">
         <v>233</v>
@@ -6931,13 +6913,13 @@
         <v>128496</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>562</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>563</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>564</v>
       </c>
       <c r="M8" s="7">
         <v>315</v>
@@ -6946,13 +6928,13 @@
         <v>186125</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>565</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>566</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7020,13 +7002,13 @@
         <v>252509</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>568</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>569</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>380</v>
       </c>
       <c r="H10" s="7">
         <v>174</v>
@@ -7035,13 +7017,13 @@
         <v>174810</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>570</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>571</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>572</v>
       </c>
       <c r="M10" s="7">
         <v>331</v>
@@ -7050,13 +7032,13 @@
         <v>427319</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>59</v>
+        <v>572</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>573</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>574</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7071,13 +7053,13 @@
         <v>674009</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>575</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>576</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>577</v>
       </c>
       <c r="H11" s="7">
         <v>738</v>
@@ -7086,13 +7068,13 @@
         <v>608875</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>578</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>579</v>
       </c>
       <c r="M11" s="7">
         <v>1319</v>
@@ -7101,13 +7083,13 @@
         <v>1282884</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>580</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>581</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7122,13 +7104,13 @@
         <v>918774</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>582</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>583</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>584</v>
       </c>
       <c r="H12" s="7">
         <v>1382</v>
@@ -7137,13 +7119,13 @@
         <v>1079731</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>585</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>586</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>587</v>
       </c>
       <c r="M12" s="7">
         <v>2284</v>
@@ -7152,13 +7134,13 @@
         <v>1998506</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>588</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>589</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7173,13 +7155,13 @@
         <v>255220</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>591</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>592</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>593</v>
       </c>
       <c r="H13" s="7">
         <v>524</v>
@@ -7188,13 +7170,13 @@
         <v>324879</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>593</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>594</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>595</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>596</v>
       </c>
       <c r="M13" s="7">
         <v>806</v>
@@ -7203,13 +7185,13 @@
         <v>580099</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>599</v>
+        <v>511</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7224,13 +7206,13 @@
         <v>52219</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>358</v>
+        <v>597</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>601</v>
+        <v>470</v>
       </c>
       <c r="H14" s="7">
         <v>93</v>
@@ -7239,13 +7221,13 @@
         <v>54975</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>442</v>
+        <v>599</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="M14" s="7">
         <v>154</v>
@@ -7254,13 +7236,13 @@
         <v>107194</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>147</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7328,13 +7310,13 @@
         <v>86560</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>607</v>
+        <v>272</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>608</v>
+        <v>491</v>
       </c>
       <c r="H16" s="7">
         <v>110</v>
@@ -7343,13 +7325,13 @@
         <v>88125</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>610</v>
+        <v>69</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="M16" s="7">
         <v>178</v>
@@ -7358,13 +7340,13 @@
         <v>174686</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7379,13 +7361,13 @@
         <v>194749</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="H17" s="7">
         <v>287</v>
@@ -7394,13 +7376,13 @@
         <v>225971</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="M17" s="7">
         <v>473</v>
@@ -7409,13 +7391,13 @@
         <v>420720</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7430,13 +7412,13 @@
         <v>319788</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="H18" s="7">
         <v>477</v>
@@ -7445,13 +7427,13 @@
         <v>322174</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>119</v>
+        <v>622</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="M18" s="7">
         <v>822</v>
@@ -7460,13 +7442,13 @@
         <v>641962</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7481,13 +7463,13 @@
         <v>60277</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>89</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="H19" s="7">
         <v>108</v>
@@ -7496,13 +7478,13 @@
         <v>62924</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="M19" s="7">
         <v>175</v>
@@ -7514,10 +7496,10 @@
         <v>96</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7532,13 +7514,13 @@
         <v>9344</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>483</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>639</v>
-      </c>
       <c r="G20" s="7" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="H20" s="7">
         <v>19</v>
@@ -7547,13 +7529,13 @@
         <v>11453</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="M20" s="7">
         <v>32</v>
@@ -7562,13 +7544,13 @@
         <v>20797</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>521</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7636,13 +7618,13 @@
         <v>374637</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="H22" s="7">
         <v>305</v>
@@ -7654,10 +7636,10 @@
         <v>58</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="M22" s="7">
         <v>574</v>
@@ -7666,13 +7648,13 @@
         <v>657056</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>430</v>
+        <v>539</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7687,13 +7669,13 @@
         <v>938734</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="H23" s="7">
         <v>1146</v>
@@ -7702,13 +7684,13 @@
         <v>908095</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="M23" s="7">
         <v>1996</v>
@@ -7717,13 +7699,13 @@
         <v>1846830</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>659</v>
+        <v>167</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7738,13 +7720,13 @@
         <v>1455999</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="H24" s="7">
         <v>2355</v>
@@ -7753,13 +7735,13 @@
         <v>1707259</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>72</v>
+        <v>659</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="M24" s="7">
         <v>3872</v>
@@ -7768,13 +7750,13 @@
         <v>3163258</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7789,13 +7771,13 @@
         <v>471775</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>670</v>
+        <v>415</v>
       </c>
       <c r="H25" s="7">
         <v>1168</v>
@@ -7804,13 +7786,13 @@
         <v>686264</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="M25" s="7">
         <v>1723</v>
@@ -7819,13 +7801,13 @@
         <v>1158039</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7840,13 +7822,13 @@
         <v>119192</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>307</v>
+        <v>361</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="H26" s="7">
         <v>345</v>
@@ -7855,13 +7837,13 @@
         <v>194924</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="M26" s="7">
         <v>501</v>
@@ -7870,13 +7852,13 @@
         <v>314117</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7932,7 +7914,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
